--- a/relationales_Modell.xlsx
+++ b/relationales_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MNSSERVER\GrossM$\Dokumente\HITO\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02C6D3C1-A549-48AD-9CFA-2A126CA8A7E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33684188-E9ED-4BF2-BCFC-9E6D9D760DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B31AD8F8-A81C-4F8A-8889-69CCD8FAC06B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>tbl_veranstaltung</t>
   </si>
@@ -45,12 +45,6 @@
     <t>tbl_termin</t>
   </si>
   <si>
-    <t>tbl-ansprechpartner</t>
-  </si>
-  <si>
-    <t>tbl_shueler</t>
-  </si>
-  <si>
     <t>PK_veranstalltung</t>
   </si>
   <si>
@@ -73,6 +67,78 @@
   </si>
   <si>
     <t>PK_schueler</t>
+  </si>
+  <si>
+    <t>Beginn</t>
+  </si>
+  <si>
+    <t>Ende</t>
+  </si>
+  <si>
+    <t>FK_raum</t>
+  </si>
+  <si>
+    <t>FK_termin</t>
+  </si>
+  <si>
+    <t>tbl_schueler</t>
+  </si>
+  <si>
+    <t>Klassenkuerzel</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>nachname</t>
+  </si>
+  <si>
+    <t>Betriebsname</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Mobilnummer</t>
+  </si>
+  <si>
+    <t>Sprechdauer</t>
+  </si>
+  <si>
+    <t>Terminbeginn</t>
+  </si>
+  <si>
+    <t>Terminende</t>
+  </si>
+  <si>
+    <t>Kuerzel</t>
+  </si>
+  <si>
+    <t>Raumnummer</t>
+  </si>
+  <si>
+    <t>Gebaeudenummer</t>
+  </si>
+  <si>
+    <t>Standortbezeichnung</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>tbl_ansprechpartner</t>
+  </si>
+  <si>
+    <t>FK_Schüler</t>
+  </si>
+  <si>
+    <t>FK_ansprechpartner</t>
   </si>
 </sst>
 </file>
@@ -104,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +183,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -126,22 +204,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -450,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B628B-194B-49FB-A528-AB7D4CD6FC2F}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,72 +675,306 @@
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/relationales_Modell.xlsx
+++ b/relationales_Modell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\MNSSERVER\GrossM$\Dokumente\HITO\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33684188-E9ED-4BF2-BCFC-9E6D9D760DE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE145CE5-FFC0-4EDC-A96E-DCAB5C0A7B10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B31AD8F8-A81C-4F8A-8889-69CCD8FAC06B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="42">
   <si>
     <t>tbl_veranstaltung</t>
   </si>
@@ -135,10 +135,22 @@
     <t>tbl_ansprechpartner</t>
   </si>
   <si>
-    <t>FK_Schüler</t>
-  </si>
-  <si>
     <t>FK_ansprechpartner</t>
+  </si>
+  <si>
+    <t>FK_veranstalltung</t>
+  </si>
+  <si>
+    <t>FK_schüler</t>
+  </si>
+  <si>
+    <t>FK_Lehrkraft</t>
+  </si>
+  <si>
+    <t>tbl_lehrkraft_termin</t>
+  </si>
+  <si>
+    <t>FK_lehrkraft</t>
   </si>
 </sst>
 </file>
@@ -170,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +207,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -295,18 +313,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -329,9 +357,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -345,6 +370,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -667,7 +704,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +713,7 @@
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -684,297 +721,306 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="9" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="13" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="C17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
